--- a/testingLog L3 Game.xlsx
+++ b/testingLog L3 Game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbhsschool-my.sharepoint.com/personal/toby_munyard_sbhsstudent_school_nz/Documents/2022/DTC L3/L3-Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="8_{97A9D1B1-0DC7-4172-A198-D467DFCF5766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4432ABE9-9310-4E2D-836B-BF88F02A06AE}"/>
+  <xr:revisionPtr revIDLastSave="99" documentId="8_{97A9D1B1-0DC7-4172-A198-D467DFCF5766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{276DF7B4-61D0-41E3-AFD8-CB728F2001CD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView minimized="1" xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>What is being tested</t>
   </si>
@@ -95,6 +95,114 @@
   </si>
   <si>
     <t>a new background and bottom of canvas is loaded and player is moved to the far left side of the canvas</t>
+  </si>
+  <si>
+    <t>difficulty</t>
+  </si>
+  <si>
+    <t>"easy" or "Easy"</t>
+  </si>
+  <si>
+    <t>converted to lower case and accepted and set</t>
+  </si>
+  <si>
+    <t>"medium" or Medium</t>
+  </si>
+  <si>
+    <t>converted to lower case accepted and set</t>
+  </si>
+  <si>
+    <t>"hard" or "Hard"</t>
+  </si>
+  <si>
+    <t>null or cancel</t>
+  </si>
+  <si>
+    <t>unaccepted and reprompt</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>name entered</t>
+  </si>
+  <si>
+    <t>moving right</t>
+  </si>
+  <si>
+    <t>moving up</t>
+  </si>
+  <si>
+    <t>moving down</t>
+  </si>
+  <si>
+    <t>moving all the way to the far left side of the canvas</t>
+  </si>
+  <si>
+    <t>moving all the way to the far right side of the canvas</t>
+  </si>
+  <si>
+    <t>moving all the way to the top of the canvas</t>
+  </si>
+  <si>
+    <t>moving all the way to the bottom of the canvas</t>
+  </si>
+  <si>
+    <t>accepted and difficulty set to easy, less enemies and slower enemies</t>
+  </si>
+  <si>
+    <t>accepted and set to medium, more enemies and normal speed enemies</t>
+  </si>
+  <si>
+    <t>accepted and set to hard, many more enemies and faster enemies</t>
+  </si>
+  <si>
+    <t>accepted and userName set to whatever player entered</t>
+  </si>
+  <si>
+    <t>accepted and userName var set to whatever player entered</t>
+  </si>
+  <si>
+    <t>anything that is not "easy", "medium" or "hard"</t>
+  </si>
+  <si>
+    <t>number instead of a word</t>
+  </si>
+  <si>
+    <t>health drops to 1</t>
+  </si>
+  <si>
+    <t>health drops to 0</t>
+  </si>
+  <si>
+    <t>hitting enemies until the health score drops to 0</t>
+  </si>
+  <si>
+    <t>all functions cease and a game over screen is placed over the canvas with a game over message presenting the score and name of the player</t>
+  </si>
+  <si>
+    <t>player hitting enemies until the health score drops to 1</t>
+  </si>
+  <si>
+    <t>game continues to function as usual with all functions active, if hit one more time then health drops to 0 and game stops all functions and displays gameOver screen.</t>
+  </si>
+  <si>
+    <t>player collides with a coin</t>
+  </si>
+  <si>
+    <t>player collides with a enemy</t>
+  </si>
+  <si>
+    <t>player moves playerXpos or playerYpos until they overlap with the Xpos or Ypos of a enemy</t>
+  </si>
+  <si>
+    <t>player moves playerXpos or playerYpos until they overlap with the Xpos or Ypos of a coin</t>
+  </si>
+  <si>
+    <t>coin is placed above the canvas so they cannot be collected again. Player is uneffected and can continue the stage. Score variable is increased by one, shown on screen and logged in console.</t>
+  </si>
+  <si>
+    <t>enemy is placed above the canvas so they are able to fall down again. Player is placed at bottom left of canvas so they can try the stage again. Health variable is decreased by one, shown on screen and logged in console.</t>
   </si>
 </sst>
 </file>
@@ -164,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -176,6 +284,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -494,14 +605,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0765B1-A414-4F58-91F9-E1D17DAE5A47}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="36.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="55" style="1" customWidth="1"/>
     <col min="4" max="4" width="53.140625" style="1" customWidth="1"/>
   </cols>
@@ -535,7 +646,9 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -547,7 +660,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -559,7 +674,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -571,7 +688,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
+      <c r="A6" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
@@ -583,7 +702,9 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>16</v>
       </c>
@@ -595,7 +716,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
+      <c r="A8" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
@@ -603,7 +726,9 @@
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
@@ -614,77 +739,173 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+    <row r="10" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
+      <c r="A17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="66" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>

--- a/testingLog L3 Game.xlsx
+++ b/testingLog L3 Game.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sbhsschool-my.sharepoint.com/personal/toby_munyard_sbhsstudent_school_nz/Documents/2022/DTC L3/L3-Game/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="99" documentId="8_{97A9D1B1-0DC7-4172-A198-D467DFCF5766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{276DF7B4-61D0-41E3-AFD8-CB728F2001CD}"/>
+  <xr:revisionPtr revIDLastSave="105" documentId="8_{97A9D1B1-0DC7-4172-A198-D467DFCF5766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C6C1830-F04A-4544-B5A8-E469AA563AAF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3855" yWindow="3855" windowWidth="21600" windowHeight="11385" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A4740EA8-4B8B-4BE0-B10F-2A8FE17358D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="57">
   <si>
     <t>What is being tested</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>enemy is placed above the canvas so they are able to fall down again. Player is placed at bottom left of canvas so they can try the stage again. Health variable is decreased by one, shown on screen and logged in console.</t>
+  </si>
+  <si>
+    <t>player stops moving down and is able to move along top of canvas</t>
   </si>
 </sst>
 </file>
@@ -605,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD0765B1-A414-4F58-91F9-E1D17DAE5A47}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -722,8 +725,12 @@
       <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="33" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
@@ -920,15 +927,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009D0F4618F16EB040A16AD13227EA0AB3" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5fa54d26b361f9b76387c8306ee001d5">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="654fcbaf-f116-4632-8f24-56452beae81a" xmlns:ns3="0a0c2d68-ba5d-4743-9a96-2b58a98e68d1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="63df30cf386619ae61f724c4aa9f7b30" ns2:_="" ns3:_="">
     <xsd:import namespace="654fcbaf-f116-4632-8f24-56452beae81a"/>
@@ -1117,6 +1115,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1130,14 +1137,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EE0C746-CE15-4059-835D-141D7ACEC5BA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1156,6 +1155,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E60CF964-E5B0-4456-94C9-62848076981E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{49705E9F-1DBC-44ED-AB34-BAD166CF391C}">
   <ds:schemaRefs>
